--- a/演示/实体演示清单.xlsx
+++ b/演示/实体演示清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8655" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="微信端" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>多图文推文</t>
   </si>
@@ -174,6 +174,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，公告，学友圈</t>
@@ -217,13 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,348 +237,30 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -591,251 +268,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -850,57 +285,10 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -910,7 +298,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1162,15 +550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
@@ -1180,37 +567,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1236,23 +623,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1265,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:1">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1454,21 +840,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1480,7 +865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1490,109 +875,111 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:1">
+    <row r="5" spans="1:1" ht="39.75">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="25.5">
+      <c r="A9" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1611,23 +998,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1641,7 +1027,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>